--- a/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B613AA82-A27B-4847-94EE-E1414586EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175EAEA-6F17-4F87-A8EF-50F1A5F003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AccountType" sheetId="4" r:id="rId4"/>
     <sheet name="SubledgerMapping" sheetId="5" r:id="rId5"/>
     <sheet name="ChartOfAccount" sheetId="6" r:id="rId6"/>
+    <sheet name="xxComponentId" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -211,13 +212,106 @@
   </si>
   <si>
     <t>Acc Depreciation</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Head_Office_Building</t>
+  </si>
+  <si>
+    <t>Manufacturing_Plant_Building</t>
+  </si>
+  <si>
+    <t>Warehouse_Facility</t>
+  </si>
+  <si>
+    <t>Regional_Office_Building</t>
+  </si>
+  <si>
+    <t>Staff_Accommodation_Building</t>
+  </si>
+  <si>
+    <t>Research_&amp;_Development_Center</t>
+  </si>
+  <si>
+    <t>Retail_Outlet_Building</t>
+  </si>
+  <si>
+    <t>Data_Center_Facility</t>
+  </si>
+  <si>
+    <t>Training_Institute_Building</t>
+  </si>
+  <si>
+    <t>Security_Control_Building</t>
+  </si>
+  <si>
+    <t>CNC_Milling_Machine</t>
+  </si>
+  <si>
+    <t>Injection_Molding_Machine</t>
+  </si>
+  <si>
+    <t>Industrial_Air_Compressor</t>
+  </si>
+  <si>
+    <t>Power_Generator</t>
+  </si>
+  <si>
+    <t>Packaging_Conveyor_System</t>
+  </si>
+  <si>
+    <t>Hydraulic_Press_Machine</t>
+  </si>
+  <si>
+    <t>Boiler_System</t>
+  </si>
+  <si>
+    <t>Forklift_Truck</t>
+  </si>
+  <si>
+    <t>Automated_Assembly_Line</t>
+  </si>
+  <si>
+    <t>Industrial_Cooling_System</t>
+  </si>
+  <si>
+    <t>Company_Sedan</t>
+  </si>
+  <si>
+    <t>Delivery_Van</t>
+  </si>
+  <si>
+    <t>Heavy_Duty_Truck</t>
+  </si>
+  <si>
+    <t>Executive_SUV</t>
+  </si>
+  <si>
+    <t>Sales_Team_Vehicle</t>
+  </si>
+  <si>
+    <t>Maintenance_Pickup_Truck</t>
+  </si>
+  <si>
+    <t>Staff_Transport_Bus</t>
+  </si>
+  <si>
+    <t>Refrigerated_Delivery_Vehicle</t>
+  </si>
+  <si>
+    <t>Fuel_Tanker</t>
+  </si>
+  <si>
+    <t>Mobile_Service_Vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +338,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -300,6 +401,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +601,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1006,4 +1108,275 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183FA801-64AE-4AAC-BB88-8A750A22F5E0}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175EAEA-6F17-4F87-A8EF-50F1A5F003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5992CF-EDB0-4A7F-AB6D-0A246B7D7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>48</v>

--- a/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/ReferenceData/RefData_FA_EVENTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5992CF-EDB0-4A7F-AB6D-0A246B7D7D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750B7E3-0B79-4D2B-9B26-58ACFBF1DE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="AccountType" sheetId="4" r:id="rId4"/>
     <sheet name="SubledgerMapping" sheetId="5" r:id="rId5"/>
     <sheet name="ChartOfAccount" sheetId="6" r:id="rId6"/>
-    <sheet name="xxComponentId" sheetId="7" r:id="rId7"/>
+    <sheet name="xxComponentMaster" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
